--- a/Datos/Database by set/Set with text box/Xlsx sets/Duel Decks Anthology Divine vs. Demonic Tokens (TDVD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duel Decks Anthology Divine vs. Demonic Tokens (TDVD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,77 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Demon</t>
+          <t>('Demon', ['Token Creature — Demon', 'Flying', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Demon</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Token Creature — Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0/1</t>
+          <t>('Thrull', ['Token Creature — Thrull', '0/1'])</t>
         </is>
       </c>
     </row>
